--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220505_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220505_110800.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>bugs</t>
+    <t>Bugs</t>
   </si>
   <si>
     <t>2022-05-05</t>

--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220505_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220505_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="248">
   <si>
     <t>사이트</t>
   </si>
@@ -691,7 +691,7 @@
     <t>해외</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>빅플래닛메이드</t>
@@ -758,9 +758,6 @@
   </si>
   <si>
     <t>NEXTAR</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1170,7 @@
         <v>214</v>
       </c>
       <c r="H2" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1199,7 +1196,7 @@
         <v>214</v>
       </c>
       <c r="H3" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1251,7 +1248,7 @@
         <v>216</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1277,7 +1274,7 @@
         <v>214</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1355,7 +1352,7 @@
         <v>219</v>
       </c>
       <c r="H9" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1381,7 +1378,7 @@
         <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1407,7 +1404,7 @@
         <v>221</v>
       </c>
       <c r="H11" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1433,7 +1430,7 @@
         <v>219</v>
       </c>
       <c r="H12" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1459,7 +1456,7 @@
         <v>222</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1485,7 +1482,7 @@
         <v>223</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1511,7 +1508,7 @@
         <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1537,7 +1534,7 @@
         <v>214</v>
       </c>
       <c r="H16" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1563,7 +1560,7 @@
         <v>225</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1589,7 +1586,7 @@
         <v>214</v>
       </c>
       <c r="H18" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1615,7 +1612,7 @@
         <v>216</v>
       </c>
       <c r="H19" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1641,7 +1638,7 @@
         <v>226</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1719,7 +1716,7 @@
         <v>216</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1745,7 +1742,7 @@
         <v>228</v>
       </c>
       <c r="H24" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1771,7 +1768,7 @@
         <v>214</v>
       </c>
       <c r="H25" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1823,7 +1820,7 @@
         <v>226</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1849,7 +1846,7 @@
         <v>229</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1875,7 +1872,7 @@
         <v>228</v>
       </c>
       <c r="H29" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1901,7 +1898,7 @@
         <v>230</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1927,7 +1924,7 @@
         <v>231</v>
       </c>
       <c r="H31" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1953,7 +1950,7 @@
         <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1979,7 +1976,7 @@
         <v>233</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2005,7 +2002,7 @@
         <v>228</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2057,7 +2054,7 @@
         <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2109,7 +2106,7 @@
         <v>236</v>
       </c>
       <c r="H38" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2135,7 +2132,7 @@
         <v>228</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2161,7 +2158,7 @@
         <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2187,7 +2184,7 @@
         <v>224</v>
       </c>
       <c r="H41" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2213,7 +2210,7 @@
         <v>237</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2317,7 +2314,7 @@
         <v>238</v>
       </c>
       <c r="H46" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2343,7 +2340,7 @@
         <v>224</v>
       </c>
       <c r="H47" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2369,7 +2366,7 @@
         <v>223</v>
       </c>
       <c r="H48" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2421,7 +2418,7 @@
         <v>225</v>
       </c>
       <c r="H50" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2447,7 +2444,7 @@
         <v>228</v>
       </c>
       <c r="H51" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2499,7 +2496,7 @@
         <v>228</v>
       </c>
       <c r="H53" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2525,7 +2522,7 @@
         <v>239</v>
       </c>
       <c r="H54" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2577,7 +2574,7 @@
         <v>228</v>
       </c>
       <c r="H56" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2603,7 +2600,7 @@
         <v>228</v>
       </c>
       <c r="H57" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2629,7 +2626,7 @@
         <v>228</v>
       </c>
       <c r="H58" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2681,7 +2678,7 @@
         <v>225</v>
       </c>
       <c r="H60" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2707,7 +2704,7 @@
         <v>228</v>
       </c>
       <c r="H61" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2733,7 +2730,7 @@
         <v>224</v>
       </c>
       <c r="H62" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2785,7 +2782,7 @@
         <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2811,7 +2808,7 @@
         <v>231</v>
       </c>
       <c r="H65" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2837,7 +2834,7 @@
         <v>240</v>
       </c>
       <c r="H66" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2863,7 +2860,7 @@
         <v>214</v>
       </c>
       <c r="H67" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2941,7 +2938,7 @@
         <v>241</v>
       </c>
       <c r="H70" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2967,7 +2964,7 @@
         <v>214</v>
       </c>
       <c r="H71" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3019,7 +3016,7 @@
         <v>224</v>
       </c>
       <c r="H73" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3045,7 +3042,7 @@
         <v>231</v>
       </c>
       <c r="H74" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3097,7 +3094,7 @@
         <v>224</v>
       </c>
       <c r="H76" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3175,7 +3172,7 @@
         <v>224</v>
       </c>
       <c r="H79" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3201,7 +3198,7 @@
         <v>244</v>
       </c>
       <c r="H80" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3253,7 +3250,7 @@
         <v>231</v>
       </c>
       <c r="H82" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3279,7 +3276,7 @@
         <v>225</v>
       </c>
       <c r="H83" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3305,7 +3302,7 @@
         <v>224</v>
       </c>
       <c r="H84" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3331,7 +3328,7 @@
         <v>214</v>
       </c>
       <c r="H85" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3357,7 +3354,7 @@
         <v>231</v>
       </c>
       <c r="H86" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3383,7 +3380,7 @@
         <v>224</v>
       </c>
       <c r="H87" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3409,7 +3406,7 @@
         <v>245</v>
       </c>
       <c r="H88" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3435,7 +3432,7 @@
         <v>220</v>
       </c>
       <c r="H89" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3461,7 +3458,7 @@
         <v>214</v>
       </c>
       <c r="H90" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3487,7 +3484,7 @@
         <v>224</v>
       </c>
       <c r="H91" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3539,7 +3536,7 @@
         <v>222</v>
       </c>
       <c r="H93" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3591,7 +3588,7 @@
         <v>224</v>
       </c>
       <c r="H95" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3643,7 +3640,7 @@
         <v>231</v>
       </c>
       <c r="H97" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3669,7 +3666,7 @@
         <v>246</v>
       </c>
       <c r="H98" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3695,7 +3692,7 @@
         <v>225</v>
       </c>
       <c r="H99" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3721,7 +3718,7 @@
         <v>231</v>
       </c>
       <c r="H100" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3747,7 +3744,7 @@
         <v>247</v>
       </c>
       <c r="H101" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
